--- a/Power BI入门数据源/项目2-数据分析师职位分析/招聘需求分析.xlsx
+++ b/Power BI入门数据源/项目2-数据分析师职位分析/招聘需求分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPython\miniweb\powerbi\LL_PowerBI\Power BI入门数据源\项目2-数据分析师职位分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C56C41-C890-4BA2-AA7E-CEDDC5E2EE99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5E2CF-E44C-456C-8F80-05F9829E6D4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2412" windowWidth="16860" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>数据分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,22 @@
       </rPr>
       <t>公司待遇</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析-数据挖掘对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同城市的薪资对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,55 +528,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4610A17A-B1CE-422F-B7EE-DD7E00BBD156}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="86.77734375" customWidth="1"/>
+    <col min="1" max="1" width="76.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
